--- a/blanco-meta/telegrams/ApiGetTelegram.xlsx
+++ b/blanco-meta/telegrams/ApiGetTelegram.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/cacco/oplux/oplux-meta/meta/telegrams/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/nanosys/SumidaMeta/meta/common/telegrams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E018867E-DEF9-9D4A-B762-DA0040D47142}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773DB882-26CD-FA4D-BCD1-94DB513970C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8260" yWindow="5800" windowWidth="24320" windowHeight="14120" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -290,10 +290,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>%</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>本番時にファイルを配置する歳のベースディレクトリ。主にTypeScriptのimport文生成時に使用する事を想定しています。</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -362,6 +358,10 @@
   <si>
     <t>io.micronaut.core.annotation.Introspected</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>%%</t>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
@@ -1128,6 +1128,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1146,7 +1147,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1560,8 +1560,8 @@
   </sheetPr>
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1640,33 +1640,33 @@
     </row>
     <row r="9" spans="1:12" s="35" customFormat="1">
       <c r="A9" s="74" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="75"/>
       <c r="C9" s="71"/>
       <c r="D9" s="72"/>
       <c r="E9" s="78"/>
       <c r="F9" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="35" customFormat="1">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="80"/>
+      <c r="B10" s="81"/>
       <c r="C10" s="71" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D10" s="72"/>
       <c r="E10" s="73"/>
       <c r="F10" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="35" customFormat="1">
       <c r="A11" s="74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="75"/>
       <c r="C11" s="71"/>
@@ -1675,11 +1675,11 @@
     </row>
     <row r="12" spans="1:12" s="35" customFormat="1">
       <c r="A12" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="75"/>
+      <c r="C12" s="79" t="s">
         <v>55</v>
-      </c>
-      <c r="B12" s="75"/>
-      <c r="C12" s="85" t="s">
-        <v>56</v>
       </c>
       <c r="D12" s="72"/>
       <c r="E12" s="73"/>
@@ -1718,7 +1718,7 @@
       </c>
       <c r="B15" s="51"/>
       <c r="C15" s="52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -1732,12 +1732,12 @@
     </row>
     <row r="16" spans="1:12" s="35" customFormat="1">
       <c r="A16" s="50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" s="51"/>
       <c r="C16" s="52"/>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16"/>
       <c r="F16"/>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="17" spans="1:12" s="35" customFormat="1">
       <c r="A17" s="50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="51"/>
       <c r="C17" s="52"/>
@@ -1766,7 +1766,7 @@
     </row>
     <row r="18" spans="1:12" s="35" customFormat="1">
       <c r="A18" s="50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" s="51"/>
       <c r="C18" s="52"/>
@@ -1937,7 +1937,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" s="60"/>
       <c r="D31" s="60"/>
@@ -1997,37 +1997,37 @@
       <c r="J35" s="15"/>
     </row>
     <row r="36" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A36" s="82" t="s">
+      <c r="A36" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="82" t="s">
+      <c r="B36" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="81" t="s">
+      <c r="C36" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="83" t="s">
+      <c r="D36" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="E36" s="81" t="s">
+      <c r="E36" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="F36" s="81" t="s">
+      <c r="F36" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="G36" s="81"/>
+      <c r="G36" s="82"/>
       <c r="H36" s="16"/>
       <c r="I36" s="17"/>
       <c r="J36" s="9"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="82"/>
-      <c r="B37" s="82"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="84"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
+      <c r="A37" s="83"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="82"/>
       <c r="H37" s="18"/>
       <c r="I37" s="30"/>
       <c r="J37" s="15"/>
@@ -2313,10 +2313,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="44" t="s">
         <v>46</v>
-      </c>
-      <c r="F3" s="44" t="s">
-        <v>47</v>
       </c>
       <c r="H3" s="44" t="s">
         <v>24</v>
@@ -2331,7 +2331,7 @@
         <v>27</v>
       </c>
       <c r="P3" s="44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2340,7 +2340,7 @@
         <v>29</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H4" s="46"/>
       <c r="J4" s="46"/>
